--- a/biology/Botanique/Consolea/Consolea.xlsx
+++ b/biology/Botanique/Consolea/Consolea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Consolea est un genre de plantes phanérogames de la famille des Cactaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Consolea a été nommé en l'honneur de Michel-Archangelo Console[2], directeur adjoint du Jardin royal botanique de Palerme, qui aurait décrit au moins deux espèces de ce genre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Consolea a été nommé en l'honneur de Michel-Archangelo Console, directeur adjoint du Jardin royal botanique de Palerme, qui aurait décrit au moins deux espèces de ce genre.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ch. Lemaire, « Sur les Cactées. Découverte d'un nouvel organe et établissement d'un nouveau genre », Revue horticole, Paris, Inconnu, vol. 1862,‎ 1862, p. 173-175 (ISSN 0758-1688 et 0035-3302, OCLC 1590046, lire en ligne)</t>
         </is>
@@ -572,9 +588,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (8 août 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (8 août 2020) (Attention liste brute contenant possiblement des synonymes) :
 Consolea acaulis F.M. Knuth
 Consolea bahamana A. Berger
 Consolea catacantha Lem.
